--- a/xlsx/旧金山大学_intext.xlsx
+++ b/xlsx/旧金山大学_intext.xlsx
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>天主教大學</t>
+    <t>天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E5%A4%A7%E6%A1%A5</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8D%81%E5%AD%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖十字學院</t>
+    <t>圣十字学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%A4%A7%E5%AD%A6</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%B0%BC%E4%BC%91%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>凱尼休斯學院</t>
+    <t>凯尼休斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8E%AB%E6%81%A9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>萊莫恩學院</t>
+    <t>莱莫恩学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%9D%A6%E8%8E%AB%E5%A4%A7%E5%AD%A6</t>
@@ -305,25 +305,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖彼得大學</t>
+    <t>圣彼得大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%91%9F%E5%A4%AB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖約瑟夫大學</t>
+    <t>圣约瑟夫大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%85%8B%E8%98%AD%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯克蘭頓大學</t>
+    <t>斯克兰顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>馬里蘭洛約拉大學</t>
+    <t>马里兰洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E5%9F%8E%E5%A4%A7%E5%AD%A6</t>
@@ -335,37 +335,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E9%9D%88%E8%80%B6%E7%A9%8C%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>惠靈耶穌會大學</t>
+    <t>惠灵耶稣会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%91%9E%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克瑞頓大學</t>
+    <t>克瑞顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%A2%85%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>底特律梅西大學</t>
+    <t>底特律梅西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%8D%A1%E7%BE%85%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰卡羅爾大學</t>
+    <t>约翰卡罗尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E7%B6%AD%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澤維爾大學</t>
+    <t>泽维尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥洛約拉大學</t>
+    <t>芝加哥洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%87%AF%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%85%8B%E8%B5%AB%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅克赫斯特大學</t>
+    <t>罗克赫斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%88%BE%E8%89%AF%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>新奧爾良洛約拉大學</t>
+    <t>新奥尔良洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%B1%B1%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>春山學院</t>
+    <t>春山学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A2%E6%89%8E%E5%8A%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>貢扎加大學</t>
+    <t>贡扎加大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E5%A4%A7%E5%AD%A6</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州藝術學院</t>
+    <t>加州艺术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -986,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
